--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22465,10 +22465,10 @@
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-15084</_dlc_DocId>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-15229</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-15084</Url>
-      <Description>VMX3MACP777Z-432858100-15084</Description>
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-15229</Url>
+      <Description>VMX3MACP777Z-432858100-15229</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{085DC758-2C96-44C0-9427-A616B8FEA76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{601C3C61-639D-4720-B218-94ED9E6370ED}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{085DC758-2C96-44C0-9427-A616B8FEA76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D93AA1A2-1D98-4AFE-AEDD-A22AA5F1BF5A}"/>
   <bookViews>
-    <workbookView xWindow="36060" yWindow="2220" windowWidth="28800" windowHeight="11265" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="6840" windowWidth="16920" windowHeight="9495" tabRatio="690" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="1950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="1960">
   <si>
     <t>Chapter</t>
   </si>
@@ -3872,12 +3872,6 @@
     <t>hk_cond_notprtnr</t>
   </si>
   <si>
-    <t>hk_sexprtnr_mean</t>
-  </si>
-  <si>
-    <t>"Mean number of sexual partners"</t>
-  </si>
-  <si>
     <t>hk_test_consl_anc</t>
   </si>
   <si>
@@ -5901,6 +5895,42 @@
   </si>
   <si>
     <t>datafile with median age at first sex (MAFS) by subgroup characteristics among women 20-49 and 25-49</t>
+  </si>
+  <si>
+    <t>"Mean number of sexual partners by age group"</t>
+  </si>
+  <si>
+    <t>sexprtnr_mean_age</t>
+  </si>
+  <si>
+    <t>sexprtnr_mean_mar</t>
+  </si>
+  <si>
+    <t>sexprtnr_mean_res</t>
+  </si>
+  <si>
+    <t>sexprtnr_mean_edu</t>
+  </si>
+  <si>
+    <t>sexprtnr_mean_wealth</t>
+  </si>
+  <si>
+    <t>"Mean number of sexual partners by marital status"</t>
+  </si>
+  <si>
+    <t>"Mean number of sexual partners by residence"</t>
+  </si>
+  <si>
+    <t>"Mean number of sexual partners by education"</t>
+  </si>
+  <si>
+    <t>"Mean number of sexual partners by wealth"</t>
+  </si>
+  <si>
+    <t>This is a dataset</t>
+  </si>
+  <si>
+    <t>hk_test_anclbr_noresult</t>
   </si>
 </sst>
 </file>
@@ -6441,13 +6471,13 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -6464,16 +6494,16 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>1465</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>1467</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -6481,13 +6511,13 @@
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -6495,13 +6525,13 @@
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F6" s="15"/>
     </row>
@@ -6509,13 +6539,13 @@
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F7" s="15"/>
     </row>
@@ -6523,13 +6553,13 @@
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F8" s="15"/>
     </row>
@@ -6537,13 +6567,13 @@
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F9" s="15"/>
     </row>
@@ -6551,13 +6581,13 @@
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -6565,13 +6595,13 @@
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F11" s="15"/>
     </row>
@@ -6579,13 +6609,13 @@
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F12" s="15"/>
     </row>
@@ -6593,13 +6623,13 @@
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F13" s="15"/>
     </row>
@@ -6607,13 +6637,13 @@
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F14" s="15"/>
     </row>
@@ -6621,13 +6651,13 @@
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F15" s="15"/>
     </row>
@@ -6635,13 +6665,13 @@
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F16" s="15"/>
     </row>
@@ -6656,16 +6686,16 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F18" s="15"/>
     </row>
@@ -6673,13 +6703,13 @@
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F19" s="15"/>
     </row>
@@ -6687,13 +6717,13 @@
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F20" s="15"/>
     </row>
@@ -6701,13 +6731,13 @@
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F21" s="15"/>
     </row>
@@ -6722,16 +6752,16 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>1487</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>1489</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -6739,13 +6769,13 @@
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F24" s="15"/>
     </row>
@@ -6753,13 +6783,13 @@
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F25" s="15"/>
     </row>
@@ -6767,13 +6797,13 @@
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F26" s="15"/>
     </row>
@@ -6781,13 +6811,13 @@
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F27" s="15"/>
     </row>
@@ -6795,13 +6825,13 @@
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F28" s="15"/>
     </row>
@@ -6809,13 +6839,13 @@
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F29" s="15"/>
     </row>
@@ -6831,10 +6861,10 @@
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>801</v>
@@ -6845,10 +6875,10 @@
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>801</v>
@@ -6859,10 +6889,10 @@
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>801</v>
@@ -6873,10 +6903,10 @@
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>801</v>
@@ -6887,10 +6917,10 @@
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>801</v>
@@ -6901,10 +6931,10 @@
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>801</v>
@@ -6915,10 +6945,10 @@
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>801</v>
@@ -6929,10 +6959,10 @@
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>801</v>
@@ -6943,10 +6973,10 @@
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>801</v>
@@ -6957,10 +6987,10 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>801</v>
@@ -6971,10 +7001,10 @@
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>801</v>
@@ -6985,10 +7015,10 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>801</v>
@@ -6999,10 +7029,10 @@
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>801</v>
@@ -7021,13 +7051,13 @@
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F45" s="15"/>
     </row>
@@ -7042,16 +7072,16 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F47" s="15"/>
     </row>
@@ -7059,13 +7089,13 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F48" s="15"/>
     </row>
@@ -7073,13 +7103,13 @@
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F49" s="15"/>
     </row>
@@ -7087,69 +7117,69 @@
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C51" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>1599</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>1601</v>
-      </c>
       <c r="E51" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C52" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>1600</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>1602</v>
-      </c>
       <c r="E52" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="15" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>1593</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>1595</v>
-      </c>
       <c r="E53" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C54" s="15" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>1594</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>1596</v>
-      </c>
       <c r="E54" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>781</v>
@@ -7157,10 +7187,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C57" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>781</v>
@@ -7168,10 +7198,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C58" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>781</v>
@@ -7179,10 +7209,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>781</v>
@@ -7190,10 +7220,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>781</v>
@@ -7201,10 +7231,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C61" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>781</v>
@@ -7212,10 +7242,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C62" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>781</v>
@@ -7225,10 +7255,10 @@
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>781</v>
@@ -7237,10 +7267,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C66" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>781</v>
@@ -7248,30 +7278,30 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C67" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>781</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C68" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>781</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -7284,10 +7314,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>781</v>
@@ -7295,10 +7325,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C71" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>781</v>
@@ -7306,10 +7336,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C72" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>781</v>
@@ -7325,10 +7355,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C74" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>781</v>
@@ -7336,10 +7366,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C75" s="1" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>781</v>
@@ -7347,10 +7377,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C76" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>781</v>
@@ -7358,10 +7388,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C78" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>781</v>
@@ -7369,10 +7399,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C79" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>781</v>
@@ -7380,10 +7410,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C80" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>781</v>
@@ -7391,10 +7421,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C81" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>781</v>
@@ -7403,10 +7433,10 @@
     <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
@@ -7424,13 +7454,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>781</v>
@@ -7438,10 +7468,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C86" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>781</v>
@@ -7449,10 +7479,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C87" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>781</v>
@@ -7460,10 +7490,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C88" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>781</v>
@@ -7471,10 +7501,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C89" s="1" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>781</v>
@@ -7482,10 +7512,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C90" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>781</v>
@@ -7493,10 +7523,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C91" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>781</v>
@@ -7504,10 +7534,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>781</v>
@@ -7565,10 +7595,10 @@
         <v>1025</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -7644,10 +7674,10 @@
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>67</v>
@@ -7775,7 +7805,7 @@
         <v>773</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>743</v>
@@ -7789,7 +7819,7 @@
         <v>774</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>743</v>
@@ -7803,7 +7833,7 @@
         <v>775</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>743</v>
@@ -7817,7 +7847,7 @@
         <v>776</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>743</v>
@@ -7831,7 +7861,7 @@
         <v>777</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>778</v>
@@ -7842,10 +7872,10 @@
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>743</v>
@@ -7855,10 +7885,10 @@
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>743</v>
@@ -7876,7 +7906,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>750</v>
@@ -8007,10 +8037,10 @@
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>743</v>
@@ -8021,10 +8051,10 @@
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>743</v>
@@ -8035,10 +8065,10 @@
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>743</v>
@@ -8049,10 +8079,10 @@
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>743</v>
@@ -8063,10 +8093,10 @@
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>743</v>
@@ -8077,10 +8107,10 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>743</v>
@@ -8091,10 +8121,10 @@
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>743</v>
@@ -8105,10 +8135,10 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>743</v>
@@ -8119,10 +8149,10 @@
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>743</v>
@@ -8133,10 +8163,10 @@
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>743</v>
@@ -8147,10 +8177,10 @@
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>743</v>
@@ -8160,10 +8190,10 @@
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>743</v>
@@ -8173,10 +8203,10 @@
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>743</v>
@@ -8195,10 +8225,10 @@
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>743</v>
@@ -8210,10 +8240,10 @@
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>743</v>
@@ -8225,10 +8255,10 @@
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>743</v>
@@ -8240,10 +8270,10 @@
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>743</v>
@@ -8263,10 +8293,10 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="C54" s="15" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>1385</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>1387</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>743</v>
@@ -8278,10 +8308,10 @@
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>1386</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>1388</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>743</v>
@@ -8302,7 +8332,7 @@
         <v>779</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>780</v>
@@ -8316,7 +8346,7 @@
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>782</v>
@@ -8330,7 +8360,7 @@
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>783</v>
@@ -8346,7 +8376,7 @@
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>784</v>
@@ -8359,7 +8389,7 @@
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>785</v>
@@ -8373,10 +8403,10 @@
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>781</v>
@@ -8387,7 +8417,7 @@
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="25" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>786</v>
@@ -8403,7 +8433,7 @@
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="25" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>787</v>
@@ -8417,7 +8447,7 @@
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="25" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>788</v>
@@ -8431,7 +8461,7 @@
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="25" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>1206</v>
@@ -8445,7 +8475,7 @@
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>789</v>
@@ -8549,10 +8579,10 @@
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>801</v>
@@ -8570,13 +8600,13 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>14</v>
@@ -8587,10 +8617,10 @@
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>14</v>
@@ -8601,10 +8631,10 @@
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>14</v>
@@ -8615,10 +8645,10 @@
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>14</v>
@@ -8637,10 +8667,10 @@
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>14</v>
@@ -8651,10 +8681,10 @@
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>14</v>
@@ -8666,10 +8696,10 @@
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="15"/>
       <c r="C84" s="15" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>14</v>
@@ -8680,10 +8710,10 @@
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>14</v>
@@ -8694,10 +8724,10 @@
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>14</v>
@@ -8708,10 +8738,10 @@
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>14</v>
@@ -8722,10 +8752,10 @@
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>14</v>
@@ -8736,10 +8766,10 @@
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>14</v>
@@ -8750,10 +8780,10 @@
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>14</v>
@@ -8764,7 +8794,7 @@
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>802</v>
@@ -8778,7 +8808,7 @@
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>803</v>
@@ -8792,10 +8822,10 @@
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>804</v>
@@ -8813,13 +8843,13 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E95" s="15" t="s">
         <v>19</v>
@@ -8830,10 +8860,10 @@
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E96" s="15" t="s">
         <v>19</v>
@@ -8846,10 +8876,10 @@
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>19</v>
@@ -8860,10 +8890,10 @@
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E98" s="15" t="s">
         <v>19</v>
@@ -8874,10 +8904,10 @@
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>19</v>
@@ -8888,10 +8918,10 @@
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E100" s="15" t="s">
         <v>19</v>
@@ -8902,10 +8932,10 @@
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E101" s="15" t="s">
         <v>19</v>
@@ -8916,10 +8946,10 @@
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E102" s="15" t="s">
         <v>19</v>
@@ -8930,10 +8960,10 @@
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E103" s="15" t="s">
         <v>19</v>
@@ -9065,10 +9095,10 @@
         <v>1026</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -9293,7 +9323,7 @@
         <v>842</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="17"/>
@@ -9606,7 +9636,7 @@
       </c>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
@@ -9662,7 +9692,7 @@
       </c>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15" t="s">
@@ -10037,10 +10067,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:D54"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10078,10 +10108,10 @@
         <v>1027</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -10222,7 +10252,7 @@
         <v>1255</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>9</v>
@@ -10361,7 +10391,7 @@
         <v>1272</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>9</v>
@@ -10370,165 +10400,179 @@
     </row>
     <row r="30" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C30" s="19" t="s">
-        <v>1273</v>
+        <v>1949</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>1274</v>
+        <v>1948</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>765</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="31" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F31" s="5"/>
+      <c r="C31" s="19" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row r="32" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C32" s="19" t="s">
-        <v>1263</v>
+        <v>1951</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>955</v>
+        <v>1955</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="19" t="s">
-        <v>953</v>
+        <v>1952</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>956</v>
+        <v>1956</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="19" t="s">
-        <v>954</v>
+        <v>1953</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>957</v>
+        <v>1957</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="19" t="s">
-        <v>958</v>
-      </c>
       <c r="C36" s="19" t="s">
-        <v>959</v>
+        <v>1263</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F36" s="5"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="19" t="s">
-        <v>1265</v>
+        <v>953</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="19" t="s">
-        <v>1264</v>
+        <v>954</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E38" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="19" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>963</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="19" t="s">
-        <v>964</v>
+        <v>1265</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F41" s="5"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="19" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1278</v>
+        <v>962</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="19" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1279</v>
+        <v>963</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="F43" s="5"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="19" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>1280</v>
-      </c>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1281</v>
+        <v>966</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>14</v>
@@ -10537,10 +10581,10 @@
     </row>
     <row r="46" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="19" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>14</v>
@@ -10549,257 +10593,287 @@
     </row>
     <row r="47" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C47" s="19" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C48" s="19" t="s">
-        <v>980</v>
+        <v>1275</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>979</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>9</v>
+        <v>1278</v>
       </c>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C49" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="19" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="19" t="s">
         <v>981</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D53" s="19" t="s">
         <v>982</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E53" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="19" t="s">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E51" s="19" t="s">
+      <c r="D55" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="23" t="s">
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="23" t="s">
         <v>969</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E52" s="19" t="s">
+      <c r="D56" s="23" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="19" t="s">
+      <c r="F56" s="5"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D58" s="19" t="s">
         <v>972</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="19" t="s">
-        <v>973</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>974</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="19" t="s">
-        <v>975</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>976</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>978</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="19" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>1289</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C59" s="19" t="s">
-        <v>1293</v>
+        <v>973</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>1290</v>
+        <v>974</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C60" s="19" t="s">
-        <v>1294</v>
+        <v>975</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>1291</v>
+        <v>976</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C61" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="19" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>1287</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="E62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>1288</v>
       </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="19" t="s">
+      <c r="C64" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="19" t="s">
         <v>983</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>1267</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D68" s="19" t="s">
         <v>984</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E68" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C65" s="19" t="s">
+      <c r="F68" s="5"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="19" t="s">
         <v>1268</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D69" s="19" t="s">
         <v>985</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E69" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="19" t="s">
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="19" t="s">
         <v>1269</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D70" s="19" t="s">
         <v>986</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E70" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="19" t="s">
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D71" s="19" t="s">
         <v>987</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E71" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="6:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10810,6 +10884,18 @@
     </row>
     <row r="83" spans="6:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="6:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="6:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="6:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="6:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F87" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10865,10 +10951,10 @@
         <v>1028</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -10945,10 +11031,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="19" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>995</v>
@@ -10956,10 +11042,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="19" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>995</v>
@@ -10967,10 +11053,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="19" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>995</v>
@@ -10978,10 +11064,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="19" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>995</v>
@@ -10989,10 +11075,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="19" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>995</v>
@@ -11000,10 +11086,10 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>995</v>
@@ -11011,10 +11097,10 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C18" s="19" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>995</v>
@@ -11022,10 +11108,10 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C19" s="19" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>995</v>
@@ -11033,10 +11119,10 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C20" s="19" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>995</v>
@@ -11044,10 +11130,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C21" s="19" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>995</v>
@@ -11163,10 +11249,10 @@
         <v>1029</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -11587,13 +11673,13 @@
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -11601,35 +11687,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="C4" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="D4" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E4" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D5" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E5" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="D6" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -11637,10 +11723,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D7" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -11648,10 +11734,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -11659,10 +11745,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>1846</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>1848</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -11670,10 +11756,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="D10" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -11681,10 +11767,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D11" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -11692,13 +11778,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="C13" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D13" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -11706,10 +11792,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D14" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -11717,10 +11803,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D15" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -11774,10 +11860,10 @@
         <v>1126</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -11788,24 +11874,24 @@
         <v>1127</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D4" t="s">
         <v>1128</v>
       </c>
       <c r="F4" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="15" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D5" t="s">
         <v>1129</v>
       </c>
       <c r="F5" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -11816,40 +11902,40 @@
         <v>1152</v>
       </c>
       <c r="F6" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D7" t="s">
         <v>1143</v>
       </c>
       <c r="F7" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D8" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="F8" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D9" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F9" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -11857,10 +11943,10 @@
         <v>1150</v>
       </c>
       <c r="D10" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F10" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -11868,87 +11954,87 @@
         <v>1151</v>
       </c>
       <c r="D11" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F11" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D12" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F12" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D13" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F13" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D14" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F14" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D15" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="F15" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D16" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="F16" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D17" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="F17" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D18" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="F18" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
@@ -11956,10 +12042,10 @@
         <v>1130</v>
       </c>
       <c r="D19" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F19" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
@@ -11967,10 +12053,10 @@
         <v>1131</v>
       </c>
       <c r="D20" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="F20" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
@@ -11978,21 +12064,21 @@
         <v>1132</v>
       </c>
       <c r="D21" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F21" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D22" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F22" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
@@ -12000,10 +12086,10 @@
         <v>1133</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="F23" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
@@ -12011,10 +12097,10 @@
         <v>1134</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F24" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
@@ -12022,10 +12108,10 @@
         <v>1135</v>
       </c>
       <c r="D25" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F25" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
@@ -12033,43 +12119,43 @@
         <v>1136</v>
       </c>
       <c r="D26" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F26" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D27" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="F27" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D28" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F28" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D29" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="F29" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.35">
@@ -12077,10 +12163,10 @@
         <v>1137</v>
       </c>
       <c r="D30" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F30" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.35">
@@ -12088,10 +12174,10 @@
         <v>1144</v>
       </c>
       <c r="D31" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="F31" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.35">
@@ -12099,10 +12185,10 @@
         <v>1138</v>
       </c>
       <c r="D32" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F32" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
@@ -12110,10 +12196,10 @@
         <v>1145</v>
       </c>
       <c r="D33" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F33" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
@@ -12121,10 +12207,10 @@
         <v>1146</v>
       </c>
       <c r="D34" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F34" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
@@ -12132,10 +12218,10 @@
         <v>1147</v>
       </c>
       <c r="D35" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F35" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
@@ -12143,10 +12229,10 @@
         <v>1139</v>
       </c>
       <c r="D36" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F36" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
@@ -12154,21 +12240,21 @@
         <v>1140</v>
       </c>
       <c r="D37" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F37" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D38" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F38" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
@@ -12176,10 +12262,10 @@
         <v>1141</v>
       </c>
       <c r="D39" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F39" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
@@ -12187,10 +12273,10 @@
         <v>1148</v>
       </c>
       <c r="D40" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="F40" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
@@ -12198,10 +12284,10 @@
         <v>1142</v>
       </c>
       <c r="D41" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="F41" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
@@ -12209,10 +12295,10 @@
         <v>1149</v>
       </c>
       <c r="D42" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="F42" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
@@ -12223,7 +12309,7 @@
         <v>1160</v>
       </c>
       <c r="F43" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
@@ -12234,592 +12320,592 @@
         <v>1161</v>
       </c>
       <c r="F44" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D45" t="s">
         <v>1162</v>
       </c>
       <c r="F45" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D46" t="s">
         <v>1163</v>
       </c>
       <c r="F46" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="24"/>
       <c r="C47" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D47" t="s">
         <v>1164</v>
       </c>
       <c r="F47" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="24"/>
       <c r="C48" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D48" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F48" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="24"/>
       <c r="C49" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D49" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="F49" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="24"/>
       <c r="C50" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D50" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F50" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="24"/>
       <c r="C51" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D51" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F51" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="24"/>
       <c r="C52" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D52" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F52" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="24"/>
       <c r="C53" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D53" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F53" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D54" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F54" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D55" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F55" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D56" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F56" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D57" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F57" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D58" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F58" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D59" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F59" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C61" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F61" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D62" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D63" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F63" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D64" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F64" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D65" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="F65" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D66" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="F66" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D67" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F67" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D68" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F68" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D69" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F69" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D70" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F70" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D71" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F71" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D72" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F72" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D73" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F73" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D74" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="F74" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D75" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F75" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D76" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F76" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D77" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F77" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D78" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="F78" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D79" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F79" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D80" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="F80" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D81" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F81" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D82" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="F82" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D83" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F83" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D84" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="F84" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D85" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="F85" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D86" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="F86" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D87" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F87" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D88" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="F88" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D89" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="F89" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D90" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F90" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D91" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F91" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92" s="24"/>
       <c r="C92" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D92" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F92" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93" s="24"/>
       <c r="C93" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D93" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F93" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="24"/>
       <c r="C94" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D94" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F94" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="24"/>
       <c r="C95" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D95" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F95" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="24"/>
       <c r="C96" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D96" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F96" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="24"/>
       <c r="C97" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D97" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F97" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
@@ -12828,22 +12914,22 @@
         <v>1159</v>
       </c>
       <c r="D98" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F98" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="24"/>
       <c r="C99" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D99" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F99" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
@@ -12855,7 +12941,7 @@
         <v>1160</v>
       </c>
       <c r="F100" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
@@ -12867,184 +12953,184 @@
         <v>1161</v>
       </c>
       <c r="F101" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="24"/>
       <c r="C102" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D102" t="s">
         <v>1162</v>
       </c>
       <c r="F102" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="24"/>
       <c r="C103" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D103" t="s">
         <v>1163</v>
       </c>
       <c r="F103" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="24"/>
       <c r="C104" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D104" t="s">
         <v>1164</v>
       </c>
       <c r="F104" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="24"/>
       <c r="C105" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D105" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F105" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="24"/>
       <c r="C106" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D106" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="F106" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="24"/>
       <c r="C107" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D107" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F107" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="24"/>
       <c r="C108" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D108" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F108" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D109" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F109" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D110" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F110" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D111" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F111" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D112" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F112" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D113" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F113" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D114" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F114" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D115" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F115" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D116" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="F116" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C118" t="s">
         <v>1233</v>
@@ -13053,7 +13139,7 @@
         <v>1153</v>
       </c>
       <c r="F118" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
@@ -13064,7 +13150,7 @@
         <v>1154</v>
       </c>
       <c r="F119" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
@@ -13075,7 +13161,7 @@
         <v>1155</v>
       </c>
       <c r="F120" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
@@ -13086,7 +13172,7 @@
         <v>1156</v>
       </c>
       <c r="F121" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
@@ -13097,7 +13183,7 @@
         <v>1157</v>
       </c>
       <c r="F122" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
@@ -13108,29 +13194,29 @@
         <v>1158</v>
       </c>
       <c r="F123" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C124" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D124" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F124" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D125" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F125" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -13181,13 +13267,13 @@
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>1859</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1861</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -13195,13 +13281,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="C4" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="D4" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -13209,10 +13295,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D5" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -13220,10 +13306,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D6" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -13231,10 +13317,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="D7" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -13242,10 +13328,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="D8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -13253,10 +13339,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="D9" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -13264,10 +13350,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D10" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -13275,10 +13361,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="D11" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -13286,49 +13372,49 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="C13" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="D13" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E13" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="D14" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E14" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D15" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E15" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D16" t="s">
         <v>1906</v>
       </c>
-      <c r="D16" t="s">
-        <v>1908</v>
-      </c>
       <c r="E16" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
@@ -13362,415 +13448,415 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C63" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F63" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D64" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F64" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D65" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F65" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D66" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F66" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D67" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="F67" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D68" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="F68" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D69" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F69" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D70" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F70" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D71" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F71" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D72" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D73" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F73" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D74" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F74" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D75" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F75" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D76" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="F76" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D77" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F77" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D78" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F78" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D79" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F79" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D80" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="F80" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D81" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F81" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D82" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="F82" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D83" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F83" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D84" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="F84" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D85" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F85" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D86" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="F86" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D87" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="F87" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D88" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="F88" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D89" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F89" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D90" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="F90" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D91" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="F91" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D92" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F92" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C93" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D93" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F93" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="24"/>
       <c r="C94" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D94" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F94" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="24"/>
       <c r="C95" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D95" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F95" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="24"/>
       <c r="C96" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D96" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F96" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="24"/>
       <c r="C97" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D97" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F97" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="24"/>
       <c r="C98" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D98" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F98" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="24"/>
       <c r="C99" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D99" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F99" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
@@ -13779,22 +13865,22 @@
         <v>1159</v>
       </c>
       <c r="D100" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F100" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="24"/>
       <c r="C101" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D101" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F101" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
@@ -13806,7 +13892,7 @@
         <v>1160</v>
       </c>
       <c r="F102" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
@@ -13818,184 +13904,184 @@
         <v>1161</v>
       </c>
       <c r="F103" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="24"/>
       <c r="C104" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D104" t="s">
         <v>1162</v>
       </c>
       <c r="F104" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="24"/>
       <c r="C105" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D105" t="s">
         <v>1163</v>
       </c>
       <c r="F105" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="24"/>
       <c r="C106" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D106" t="s">
         <v>1164</v>
       </c>
       <c r="F106" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="24"/>
       <c r="C107" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D107" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F107" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="24"/>
       <c r="C108" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D108" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="F108" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="24"/>
       <c r="C109" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D109" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F109" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B110" s="24"/>
       <c r="C110" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D110" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F110" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D111" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F111" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D112" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F112" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D113" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F113" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D114" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F114" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D115" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F115" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D116" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F116" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D117" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F117" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D118" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="F118" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C120" t="s">
         <v>1233</v>
@@ -14004,7 +14090,7 @@
         <v>1153</v>
       </c>
       <c r="F120" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
@@ -14015,7 +14101,7 @@
         <v>1154</v>
       </c>
       <c r="F121" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
@@ -14026,7 +14112,7 @@
         <v>1155</v>
       </c>
       <c r="F122" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
@@ -14037,7 +14123,7 @@
         <v>1156</v>
       </c>
       <c r="F123" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
@@ -14048,7 +14134,7 @@
         <v>1157</v>
       </c>
       <c r="F124" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
@@ -14059,29 +14145,29 @@
         <v>1158</v>
       </c>
       <c r="F125" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D126" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F126" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C127" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D127" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F127" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -14131,13 +14217,13 @@
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>1871</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1873</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -14145,13 +14231,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="C4" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="D4" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -14159,10 +14245,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="15" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="D5" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14170,10 +14256,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D6" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14181,10 +14267,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="D8" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14192,10 +14278,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D9" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14203,10 +14289,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="D11" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14214,10 +14300,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D12" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -14225,10 +14311,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="D13" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -14236,10 +14322,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="D14" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -14276,415 +14362,415 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C62" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F62" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D63" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F63" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D64" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F64" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D65" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F65" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D66" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="F66" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D67" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="F67" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D68" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F68" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D69" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F69" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D70" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F70" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D71" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D72" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F72" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D73" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F73" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D74" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F74" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D75" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="F75" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D76" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F76" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D77" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F77" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D78" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F78" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D79" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="F79" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D80" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F80" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D81" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="F81" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D82" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F82" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D83" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="F83" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D84" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F84" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D85" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="F85" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D86" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="F86" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D87" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="F87" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D88" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F88" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D89" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="F89" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D90" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="F90" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D91" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F91" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D92" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F92" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93" s="24"/>
       <c r="C93" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D93" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F93" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="24"/>
       <c r="C94" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D94" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F94" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="24"/>
       <c r="C95" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D95" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F95" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="24"/>
       <c r="C96" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D96" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F96" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="24"/>
       <c r="C97" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D97" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F97" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="24"/>
       <c r="C98" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D98" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F98" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
@@ -14693,22 +14779,22 @@
         <v>1159</v>
       </c>
       <c r="D99" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F99" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="24"/>
       <c r="C100" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D100" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F100" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
@@ -14720,7 +14806,7 @@
         <v>1160</v>
       </c>
       <c r="F101" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
@@ -14732,184 +14818,184 @@
         <v>1161</v>
       </c>
       <c r="F102" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="24"/>
       <c r="C103" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D103" t="s">
         <v>1162</v>
       </c>
       <c r="F103" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="24"/>
       <c r="C104" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D104" t="s">
         <v>1163</v>
       </c>
       <c r="F104" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="24"/>
       <c r="C105" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D105" t="s">
         <v>1164</v>
       </c>
       <c r="F105" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="24"/>
       <c r="C106" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D106" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F106" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="24"/>
       <c r="C107" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D107" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="F107" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="24"/>
       <c r="C108" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D108" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F108" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="24"/>
       <c r="C109" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D109" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F109" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D110" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F110" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D111" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F111" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D112" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F112" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D113" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F113" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D114" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F114" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D115" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F115" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D116" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F116" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D117" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="F117" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C119" t="s">
         <v>1233</v>
@@ -14918,7 +15004,7 @@
         <v>1153</v>
       </c>
       <c r="F119" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
@@ -14929,7 +15015,7 @@
         <v>1154</v>
       </c>
       <c r="F120" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
@@ -14940,7 +15026,7 @@
         <v>1155</v>
       </c>
       <c r="F121" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
@@ -14951,7 +15037,7 @@
         <v>1156</v>
       </c>
       <c r="F122" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
@@ -14962,7 +15048,7 @@
         <v>1157</v>
       </c>
       <c r="F123" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
@@ -14973,29 +15059,29 @@
         <v>1158</v>
       </c>
       <c r="F124" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D125" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F125" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D126" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F126" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -15050,10 +15136,10 @@
         <v>1030</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -15564,7 +15650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -15604,10 +15690,10 @@
         <v>1018</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -15779,58 +15865,58 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -15939,10 +16025,10 @@
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>9</v>
@@ -15951,58 +16037,58 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>1934</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1936</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>1935</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1937</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
   </sheetData>
@@ -16057,10 +16143,10 @@
         <v>1019</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -16080,7 +16166,7 @@
         <v>1230</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>48</v>
@@ -16096,7 +16182,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>49</v>
@@ -16112,7 +16198,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>50</v>
@@ -16128,7 +16214,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>51</v>
@@ -16144,7 +16230,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>52</v>
@@ -16160,7 +16246,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>53</v>
@@ -16176,7 +16262,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>54</v>
@@ -16231,10 +16317,10 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>46</v>
@@ -16257,10 +16343,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>57</v>
@@ -16276,10 +16362,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>47</v>
@@ -16292,10 +16378,10 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>47</v>
@@ -16379,7 +16465,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>62</v>
@@ -16554,10 +16640,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C37" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
@@ -16565,51 +16651,51 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="C43" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -16618,7 +16704,7 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>66</v>
@@ -16631,10 +16717,10 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>68</v>
@@ -16648,7 +16734,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>69</v>
@@ -16662,7 +16748,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>70</v>
@@ -16676,7 +16762,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>71</v>
@@ -16690,7 +16776,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>72</v>
@@ -16704,7 +16790,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>73</v>
@@ -16718,7 +16804,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>74</v>
@@ -16731,7 +16817,7 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>75</v>
@@ -16803,10 +16889,10 @@
         <v>1020</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -17002,10 +17088,10 @@
         <v>1021</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -19007,10 +19093,10 @@
         <v>1022</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -19769,10 +19855,10 @@
         <v>1023</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -20412,10 +20498,10 @@
         <v>1024</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -20845,10 +20931,10 @@
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>67</v>
@@ -20858,10 +20944,10 @@
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>67</v>
@@ -20871,10 +20957,10 @@
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>67</v>
@@ -20885,10 +20971,10 @@
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>67</v>
@@ -20898,10 +20984,10 @@
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>67</v>
@@ -20911,10 +20997,10 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>67</v>
@@ -20925,10 +21011,10 @@
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>67</v>
@@ -20938,10 +21024,10 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>67</v>
@@ -20951,10 +21037,10 @@
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>67</v>
@@ -22072,30 +22158,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-15229</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-15229</Url>
-      <Description>VMX3MACP777Z-432858100-15229</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22370,6 +22432,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-15229</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-15229</Url>
+      <Description>VMX3MACP777Z-432858100-15229</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -22421,9 +22507,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F503BE4-9549-4612-BCF7-64E63BC81C61}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22447,7 +22545,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F503BE4-9549-4612-BCF7-64E63BC81C61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22158,11 +22158,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <xsd:import namespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -22188,6 +22189,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -22280,6 +22283,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="30" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6856f2ee-118d-42e8-91de-064c9a66b685" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d16efad5-0601-4cf0-b7c2-89968258c777" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22331,6 +22341,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="31" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9af71320-1412-4515-a0b2-dc1dac8ea18d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -22443,6 +22468,10 @@
       <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-15229</Url>
       <Description>VMX3MACP777Z-432858100-15229</Description>
     </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -22507,23 +22536,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F503BE4-9549-4612-BCF7-64E63BC81C61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33930504-2D3A-4F45-8C23-DBA36A6F4455}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
